--- a/Assets/JSON/QUEST_INFO.xlsx
+++ b/Assets/JSON/QUEST_INFO.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\GemChronicle\Util\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\GemChronicle\Assets\JSON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="6555"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="16905" windowHeight="6525"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -23,43 +23,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <x:si>
+    <x:t>Exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난 NPC3란다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이 난 npc4야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 퀘스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 퀘스트 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안녕 난 NPC2야 잘부탁해</x:t>
+  </x:si>
+  <x:si>
     <x:t>안녕 ? 난 NPC1이야</x:t>
   </x:si>
   <x:si>
-    <x:t>안녕 난 NPC2야 잘부탁해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 퀘스트 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 퀘스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#ItemInfos[{}]</x:t>
-  </x:si>
-  <x:si>
     <x:t>마을 사람들과 대화하기</x:t>
   </x:si>
   <x:si>
-    <x:t>하이 난 npc4야</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난 NPC3란다</x:t>
+    <x:t>#QuestInfos[{}]</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -132,9 +132,12 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
@@ -834,125 +837,125 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D8" activeCellId="0" sqref="D8:D8"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="34.850000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="36.875" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="47.25" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="34.25" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="45.875" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="15.375" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="50.625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="44.625" style="1" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="8" max="16384" width="8.75" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:6">
-      <x:c r="B2" s="1">
+      <x:c r="B2" s="2">
         <x:v>2001</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="2">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="E2" s="2">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="D2" s="1">
-        <x:v>1500</x:v>
-      </x:c>
-      <x:c r="E2" s="1">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:6">
-      <x:c r="B3" s="1">
+      <x:c r="B3" s="2">
         <x:v>2002</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="1">
+      <x:c r="C3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="2">
         <x:v>1500</x:v>
       </x:c>
-      <x:c r="E3" s="1">
+      <x:c r="E3" s="2">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>1</x:v>
+      <x:c r="F3" s="2" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:6">
-      <x:c r="B4" s="1">
+      <x:c r="B4" s="2">
         <x:v>2003</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D4" s="1">
+      <x:c r="C4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D4" s="2">
         <x:v>1500</x:v>
       </x:c>
-      <x:c r="E4" s="1">
+      <x:c r="E4" s="2">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>12</x:v>
+      <x:c r="F4" s="2" t="s">
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:6">
-      <x:c r="B5" s="1">
+      <x:c r="B5" s="2">
         <x:v>2004</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D5" s="1">
+      <x:c r="C5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="2">
         <x:v>1500</x:v>
       </x:c>
-      <x:c r="E5" s="1">
+      <x:c r="E5" s="2">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>11</x:v>
+      <x:c r="F5" s="2" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
-      <x:c r="B6" s="1">
+      <x:c r="B6" s="2">
         <x:v>2005</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D6" s="1">
+      <x:c r="C6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="2">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="E6" s="1">
+      <x:c r="E6" s="2">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
-        <x:v>2</x:v>
+      <x:c r="F6" s="2" t="s">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
